--- a/data/sector.xlsx
+++ b/data/sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA62D566-F5A5-4028-82CB-5AE1B23E341E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC622A77-A2E8-4A06-8C24-D15FEC3E25B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC9C41AC-D841-45C3-BC3A-7E72D0D4C5EE}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21735" windowHeight="5370" xr2:uid="{CC9C41AC-D841-45C3-BC3A-7E72D0D4C5EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sector" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,9 +47,6 @@
     <t>Câmara Municipal de Lisboa</t>
   </si>
   <si>
-    <t>Juntas de Freguesia</t>
-  </si>
-  <si>
     <t>Ano</t>
   </si>
   <si>
@@ -58,6 +57,9 @@
   </si>
   <si>
     <t>Perdas económicas</t>
+  </si>
+  <si>
+    <t>Delegações CML</t>
   </si>
 </sst>
 </file>
@@ -133,7 +135,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -432,7 +434,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +454,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -464,19 +466,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -606,7 +608,7 @@
         <v>13343.974435</v>
       </c>
       <c r="D6" s="3">
-        <v>2119.9550074999997</v>
+        <v>2216.8420075000004</v>
       </c>
       <c r="E6" s="3">
         <v>3931.6008449999999</v>
@@ -621,7 +623,7 @@
         <v>5333.29781928182</v>
       </c>
       <c r="I6" s="3">
-        <v>57164.670134281812</v>
+        <v>57261.557134281815</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -635,7 +637,7 @@
         <v>13331.908552499999</v>
       </c>
       <c r="D7" s="3">
-        <v>1977.3104575</v>
+        <v>2097.1594574999999</v>
       </c>
       <c r="E7" s="3">
         <v>3517.29675</v>
@@ -644,7 +646,7 @@
         <v>2644.46875</v>
       </c>
       <c r="G7" s="3">
-        <v>1555.4269899999999</v>
+        <v>1435.57799</v>
       </c>
       <c r="H7" s="3">
         <v>4660.24740151674</v>

--- a/data/sector.xlsx
+++ b/data/sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\matrizagua\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC622A77-A2E8-4A06-8C24-D15FEC3E25B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D981987E-D961-4736-8F4A-4C8CED8AD73F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21735" windowHeight="5370" xr2:uid="{CC9C41AC-D841-45C3-BC3A-7E72D0D4C5EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CC9C41AC-D841-45C3-BC3A-7E72D0D4C5EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sector" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +81,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,15 +111,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -117,9 +128,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{3421E435-CB0D-467E-86F8-33A56AE8F6B9}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{C6D2A38E-465B-42CA-ACC1-B33CE1DFDD54}"/>
+    <cellStyle name="Percent 2" xfId="3" xr:uid="{D23AEA0E-8B42-4673-85EE-E2C7B65073A6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -431,28 +451,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D87325-FA51-410A-972F-CB5F10F0BC22}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -481,8 +501,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>2013</v>
       </c>
       <c r="B2" s="1">
@@ -506,40 +526,40 @@
       <c r="H2" s="1">
         <v>2600</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>55400</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2014</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>26500</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>11500</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>1800</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>4400</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>7400</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>800</v>
       </c>
       <c r="H3" s="1">
         <v>3000</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>55400</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2015</v>
       </c>
@@ -561,102 +581,140 @@
       <c r="G4" s="1">
         <v>1100</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>3439.51313935999</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>56539.513139359988</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2016</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>27212.502362500003</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>12688.575644999999</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1979.2497949999999</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>4031.0410650000003</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>3866.9824699999999</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>1470.1410000000001</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>4649.3320000000003</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>55897.824337500009</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2017</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>27488.097277499997</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>13343.974435</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>2216.8420075000004</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>3931.6008449999999</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>3115.3787499999999</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>1832.366</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>5333.29781928182</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>57261.557134281815</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2018</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>26783.307247500004</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>13331.908552499999</v>
       </c>
-      <c r="D7" s="3">
-        <v>2097.1594574999999</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="2">
+        <v>1977.31</v>
+      </c>
+      <c r="E7" s="2">
         <v>3517.29675</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>2644.46875</v>
       </c>
-      <c r="G7" s="3">
-        <v>1435.57799</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="G7" s="2">
+        <v>1555.4269999999999</v>
+      </c>
+      <c r="H7" s="2">
         <v>4660.24740151674</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>54469.966149016749</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="2">
+        <v>27102.164000000001</v>
+      </c>
+      <c r="C8" s="2">
+        <v>14026.593000000001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2018.3050000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3347.4259999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2604.2750000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1481.0319999999999</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4214.5879999999997</v>
+      </c>
+      <c r="I8" s="2">
+        <v>54794.383000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
